--- a/individual_results/avey/179.xlsx
+++ b/individual_results/avey/179.xlsx
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2" t="n">
         <v>0.3333333333333333</v>
@@ -625,7 +625,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C3" t="n">
         <v>0.5</v>
@@ -698,7 +698,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8</v>
+        <v>0.4</v>
       </c>
       <c r="C4" t="n">
         <v>0.4</v>
@@ -765,7 +765,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9090909090909091</v>
+        <v>0.4545454545454545</v>
       </c>
       <c r="C5" t="n">
         <v>0.4545454545454545</v>
@@ -832,7 +832,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.6590018048024133</v>
+        <v>0.52129602861432</v>
       </c>
       <c r="C6" t="n">
         <v>0.41311732856428</v>
